--- a/사건 격투 몬스터.xlsx
+++ b/사건 격투 몬스터.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D766F1-7B74-4743-BD3F-83C0FD8B1701}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>dueul_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duelID_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,43 +58,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>시위대원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스터 장의 경호원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 테러범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문의 경호원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>Fightdice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infightper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outfightper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grapplingper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infightplus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outfightplus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grapplingplus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>전민원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시위대원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스터 장의 경호원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수서동 테러범</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의문의 경호원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geonminwon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random.Range 1 ~ 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random.Range 1 ~ 4</t>
+  </si>
+  <si>
+    <t>protesters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.Jang`s escort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>biochip gangster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>escort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detecter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detecter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old men</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random.Range 1 ~ 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +199,37 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,17 +237,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="출력" xfId="1" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,124 +568,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
         <v>3</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>80</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>80</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>80</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <v>80</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
+        <v>80</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>90</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
